--- a/2008_dengue_extracted.xlsx
+++ b/2008_dengue_extracted.xlsx
@@ -1,41 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danalevi/Documents/GitHub/topic04_team04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{455C361C-B79C-9847-AA8A-FE51D989521F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF5C013-1B6D-B646-B41E-AE8017C61B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D.H.F,Total(26,27,66)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="114210"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
-    <t>Reporting areas</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Jan</t>
   </si>
   <si>
@@ -304,12 +290,15 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Reporting_areas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -395,7 +384,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -410,24 +399,24 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal_tds26" xfId="1"/>
+    <cellStyle name="Normal_tds26" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -739,12 +728,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="50" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -757,48 +744,48 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="13">
         <v>3</v>
@@ -840,7 +827,7 @@
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="13">
         <v>82</v>
@@ -881,7 +868,7 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="13">
         <v>601</v>
@@ -923,49 +910,49 @@
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="C5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="13">
         <v>48</v>
@@ -1006,7 +993,7 @@
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="13">
         <v>32</v>
@@ -1047,7 +1034,7 @@
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="13">
         <v>45</v>
@@ -1088,7 +1075,7 @@
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="13">
         <v>19</v>
@@ -1129,7 +1116,7 @@
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="13">
         <v>28</v>
@@ -1171,7 +1158,7 @@
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="13">
         <v>21</v>
@@ -1212,7 +1199,7 @@
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="13">
         <v>1</v>
@@ -1253,7 +1240,7 @@
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="13">
         <v>11</v>
@@ -1294,7 +1281,7 @@
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="13">
         <v>36</v>
@@ -1335,7 +1322,7 @@
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="13">
         <v>34</v>
@@ -1376,7 +1363,7 @@
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="13">
         <v>32</v>
@@ -1417,7 +1404,7 @@
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="13">
         <v>38</v>
@@ -1458,7 +1445,7 @@
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="13">
         <v>12</v>
@@ -1499,7 +1486,7 @@
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="13">
         <v>54</v>
@@ -1540,7 +1527,7 @@
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="13">
         <v>2</v>
@@ -1582,7 +1569,7 @@
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="13">
         <v>8</v>
@@ -1623,13 +1610,13 @@
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="13">
         <v>2</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="13">
         <v>6</v>
@@ -1664,7 +1651,7 @@
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="13">
         <v>59</v>
@@ -1706,13 +1693,13 @@
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="13">
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="13">
         <v>2</v>
@@ -1747,7 +1734,7 @@
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="13">
         <v>6</v>
@@ -1788,7 +1775,7 @@
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="13">
         <v>9</v>
@@ -1797,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="13">
         <v>9</v>
@@ -1829,7 +1816,7 @@
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="13">
         <v>31</v>
@@ -1870,7 +1857,7 @@
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="13">
         <v>73</v>
@@ -1911,7 +1898,7 @@
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="13">
         <v>1</v>
@@ -1941,18 +1928,18 @@
         <v>2</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="13">
         <v>48</v>
@@ -1993,7 +1980,7 @@
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="13">
         <v>107</v>
@@ -2034,7 +2021,7 @@
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="13">
         <v>96</v>
@@ -2075,7 +2062,7 @@
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="13">
         <v>1</v>
@@ -2116,7 +2103,7 @@
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="13">
         <v>69</v>
@@ -2157,7 +2144,7 @@
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="13">
         <v>1</v>
@@ -2190,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M35" s="13">
         <v>1</v>
@@ -2199,7 +2186,7 @@
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="13">
         <v>7</v>
@@ -2241,7 +2228,7 @@
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="13">
         <v>89</v>
@@ -2282,7 +2269,7 @@
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="13">
         <v>85</v>
@@ -2323,7 +2310,7 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="13">
         <v>69</v>
@@ -2364,7 +2351,7 @@
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="13">
         <v>70</v>
@@ -2405,7 +2392,7 @@
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="13">
         <v>34</v>
@@ -2446,7 +2433,7 @@
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="13">
         <v>56</v>
@@ -2487,10 +2474,10 @@
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="13">
         <v>1</v>
@@ -2528,7 +2515,7 @@
     </row>
     <row r="44" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="13">
         <v>21</v>
@@ -2570,7 +2557,7 @@
     </row>
     <row r="45" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="13">
         <v>35</v>
@@ -2612,7 +2599,7 @@
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="13">
         <v>51</v>
@@ -2653,7 +2640,7 @@
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="13">
         <v>25</v>
@@ -2694,7 +2681,7 @@
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" s="13">
         <v>2</v>
@@ -2735,7 +2722,7 @@
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="13">
         <v>60</v>
@@ -2776,7 +2763,7 @@
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" s="13">
         <v>46</v>
@@ -2817,7 +2804,7 @@
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="13">
         <v>54</v>
@@ -2858,7 +2845,7 @@
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="13">
         <v>11</v>
@@ -2899,7 +2886,7 @@
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="13">
         <v>97</v>
@@ -2940,7 +2927,7 @@
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B54" s="13">
         <v>63</v>
@@ -2981,7 +2968,7 @@
     </row>
     <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="13">
         <v>29</v>
@@ -3022,7 +3009,7 @@
     </row>
     <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" s="13">
         <v>14</v>
@@ -3063,7 +3050,7 @@
     </row>
     <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="13">
         <v>2</v>
@@ -3099,12 +3086,12 @@
         <v>6</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58" s="13">
         <v>140</v>
@@ -3145,7 +3132,7 @@
     </row>
     <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" s="13">
         <v>95</v>
@@ -3186,7 +3173,7 @@
     </row>
     <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="13">
         <v>18</v>
@@ -3227,7 +3214,7 @@
     </row>
     <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" s="13">
         <v>16</v>
@@ -3268,7 +3255,7 @@
     </row>
     <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" s="13">
         <v>15</v>
@@ -3309,7 +3296,7 @@
     </row>
     <row r="63" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="13">
         <v>21</v>
@@ -3351,7 +3338,7 @@
     </row>
     <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" s="13">
         <v>15</v>
@@ -3392,7 +3379,7 @@
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" s="13">
         <v>149</v>
@@ -3433,7 +3420,7 @@
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="13">
         <v>4</v>
@@ -3474,7 +3461,7 @@
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="13">
         <v>108</v>
@@ -3515,7 +3502,7 @@
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B68" s="13">
         <v>23</v>
@@ -3556,7 +3543,7 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="13">
         <v>56</v>
@@ -3597,7 +3584,7 @@
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B70" s="13">
         <v>21</v>
@@ -3638,7 +3625,7 @@
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" s="13">
         <v>13</v>
@@ -3679,7 +3666,7 @@
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" s="13">
         <v>16</v>
@@ -3720,7 +3707,7 @@
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B73" s="13">
         <v>12</v>
@@ -3761,7 +3748,7 @@
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B74" s="13">
         <v>11</v>
@@ -3802,7 +3789,7 @@
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B75" s="13">
         <v>17</v>
@@ -3843,7 +3830,7 @@
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" s="13">
         <v>12</v>
@@ -3884,7 +3871,7 @@
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77" s="13">
         <v>28</v>
@@ -3925,7 +3912,7 @@
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78" s="13">
         <v>2</v>

--- a/2008_dengue_extracted.xlsx
+++ b/2008_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF5C013-1B6D-B646-B41E-AE8017C61B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{ACF5C013-1B6D-B646-B41E-AE8017C61B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0D216BF-A074-4A84-A634-2C9AF722A960}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D.H.F,Total(26,27,66)" sheetId="1" r:id="rId1"/>
@@ -37,18 +37,9 @@
     <t xml:space="preserve">   May</t>
   </si>
   <si>
-    <t xml:space="preserve">   June</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   July</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Aug</t>
   </si>
   <si>
-    <t xml:space="preserve">  Sept</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Oct</t>
   </si>
   <si>
@@ -293,13 +284,22 @@
   </si>
   <si>
     <t>Reporting_areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -416,8 +416,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_tds26" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -731,20 +731,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="8" customWidth="1"/>
-    <col min="3" max="13" width="15.83203125" style="6" customWidth="1"/>
-    <col min="14" max="256" width="15.83203125" style="3" customWidth="1"/>
-    <col min="257" max="16384" width="9.1640625" style="3"/>
+    <col min="2" max="2" width="15.77734375" style="8" customWidth="1"/>
+    <col min="3" max="13" width="15.77734375" style="6" customWidth="1"/>
+    <col min="14" max="256" width="15.77734375" style="3" customWidth="1"/>
+    <col min="257" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -762,30 +764,30 @@
         <v>4</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="13">
         <v>3</v>
@@ -825,9 +827,9 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="13">
         <v>82</v>
@@ -866,9 +868,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="13">
         <v>601</v>
@@ -908,51 +910,51 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="13">
         <v>48</v>
@@ -991,9 +993,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="13">
         <v>32</v>
@@ -1032,9 +1034,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="13">
         <v>45</v>
@@ -1073,9 +1075,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" s="13">
         <v>19</v>
@@ -1114,9 +1116,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="13">
         <v>28</v>
@@ -1156,9 +1158,9 @@
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" s="13">
         <v>21</v>
@@ -1197,9 +1199,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="13">
         <v>1</v>
@@ -1238,9 +1240,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="13">
         <v>11</v>
@@ -1279,9 +1281,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="13">
         <v>36</v>
@@ -1320,9 +1322,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" s="13">
         <v>34</v>
@@ -1361,9 +1363,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B16" s="13">
         <v>32</v>
@@ -1402,9 +1404,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="13">
         <v>38</v>
@@ -1443,9 +1445,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" s="13">
         <v>12</v>
@@ -1484,9 +1486,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="13">
         <v>54</v>
@@ -1525,9 +1527,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20" s="13">
         <v>2</v>
@@ -1567,9 +1569,9 @@
       </c>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B21" s="13">
         <v>8</v>
@@ -1608,15 +1610,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B22" s="13">
         <v>2</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D22" s="13">
         <v>6</v>
@@ -1649,9 +1651,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23" s="13">
         <v>59</v>
@@ -1691,15 +1693,15 @@
       </c>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B24" s="13">
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D24" s="13">
         <v>2</v>
@@ -1732,9 +1734,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B25" s="13">
         <v>6</v>
@@ -1773,9 +1775,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" s="13">
         <v>9</v>
@@ -1784,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E26" s="13">
         <v>9</v>
@@ -1814,9 +1816,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B27" s="13">
         <v>31</v>
@@ -1855,9 +1857,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="13">
         <v>73</v>
@@ -1896,9 +1898,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" s="13">
         <v>1</v>
@@ -1928,18 +1930,18 @@
         <v>2</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B30" s="13">
         <v>48</v>
@@ -1978,9 +1980,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B31" s="13">
         <v>107</v>
@@ -2019,9 +2021,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" s="13">
         <v>96</v>
@@ -2060,9 +2062,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B33" s="13">
         <v>1</v>
@@ -2101,9 +2103,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34" s="13">
         <v>69</v>
@@ -2142,9 +2144,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" s="13">
         <v>1</v>
@@ -2177,16 +2179,16 @@
         <v>2</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M35" s="13">
         <v>1</v>
       </c>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B36" s="13">
         <v>7</v>
@@ -2226,9 +2228,9 @@
       </c>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B37" s="13">
         <v>89</v>
@@ -2267,9 +2269,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" s="13">
         <v>85</v>
@@ -2308,9 +2310,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B39" s="13">
         <v>69</v>
@@ -2349,9 +2351,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B40" s="13">
         <v>70</v>
@@ -2390,9 +2392,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" s="13">
         <v>34</v>
@@ -2431,9 +2433,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42" s="13">
         <v>56</v>
@@ -2472,12 +2474,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C43" s="13">
         <v>1</v>
@@ -2513,9 +2515,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B44" s="13">
         <v>21</v>
@@ -2555,9 +2557,9 @@
       </c>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B45" s="13">
         <v>35</v>
@@ -2597,9 +2599,9 @@
       </c>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B46" s="13">
         <v>51</v>
@@ -2638,9 +2640,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B47" s="13">
         <v>25</v>
@@ -2679,9 +2681,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B48" s="13">
         <v>2</v>
@@ -2720,9 +2722,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B49" s="13">
         <v>60</v>
@@ -2761,9 +2763,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B50" s="13">
         <v>46</v>
@@ -2802,9 +2804,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B51" s="13">
         <v>54</v>
@@ -2843,9 +2845,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B52" s="13">
         <v>11</v>
@@ -2884,9 +2886,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B53" s="13">
         <v>97</v>
@@ -2925,9 +2927,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B54" s="13">
         <v>63</v>
@@ -2966,9 +2968,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B55" s="13">
         <v>29</v>
@@ -3007,9 +3009,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B56" s="13">
         <v>14</v>
@@ -3048,9 +3050,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57" s="13">
         <v>2</v>
@@ -3086,12 +3088,12 @@
         <v>6</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B58" s="13">
         <v>140</v>
@@ -3130,9 +3132,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B59" s="13">
         <v>95</v>
@@ -3171,9 +3173,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B60" s="13">
         <v>18</v>
@@ -3212,9 +3214,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B61" s="13">
         <v>16</v>
@@ -3253,9 +3255,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B62" s="13">
         <v>15</v>
@@ -3294,9 +3296,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63" s="13">
         <v>21</v>
@@ -3336,9 +3338,9 @@
       </c>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B64" s="13">
         <v>15</v>
@@ -3377,9 +3379,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" ht="15" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B65" s="13">
         <v>149</v>
@@ -3418,9 +3420,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" ht="15" customHeight="1">
       <c r="A66" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B66" s="13">
         <v>4</v>
@@ -3459,9 +3461,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" ht="15" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B67" s="13">
         <v>108</v>
@@ -3500,9 +3502,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" ht="15" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B68" s="13">
         <v>23</v>
@@ -3541,9 +3543,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" ht="15" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B69" s="13">
         <v>56</v>
@@ -3582,9 +3584,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13" ht="15" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B70" s="13">
         <v>21</v>
@@ -3623,9 +3625,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" ht="15" customHeight="1">
       <c r="A71" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B71" s="13">
         <v>13</v>
@@ -3664,9 +3666,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" ht="15" customHeight="1">
       <c r="A72" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B72" s="13">
         <v>16</v>
@@ -3705,9 +3707,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" ht="15" customHeight="1">
       <c r="A73" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B73" s="13">
         <v>12</v>
@@ -3746,9 +3748,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" ht="15" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B74" s="13">
         <v>11</v>
@@ -3787,9 +3789,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" ht="15" customHeight="1">
       <c r="A75" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B75" s="13">
         <v>17</v>
@@ -3828,9 +3830,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13" ht="15" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B76" s="13">
         <v>12</v>
@@ -3869,9 +3871,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:13" ht="15" customHeight="1">
       <c r="A77" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B77" s="13">
         <v>28</v>
@@ -3910,9 +3912,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13" ht="15" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B78" s="13">
         <v>2</v>
@@ -3951,7 +3953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:13" ht="15" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -3966,107 +3968,107 @@
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
     </row>
-    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:13" ht="15" customHeight="1">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15" customHeight="1">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15" customHeight="1">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15" customHeight="1">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15" customHeight="1">
       <c r="A84" s="7"/>
     </row>
-    <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15" customHeight="1">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15" customHeight="1">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15" customHeight="1">
       <c r="A87" s="7"/>
     </row>
-    <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15" customHeight="1">
       <c r="A88" s="7"/>
     </row>
-    <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15" customHeight="1">
       <c r="A89" s="7"/>
     </row>
-    <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15" customHeight="1">
       <c r="A90" s="7"/>
     </row>
-    <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15" customHeight="1">
       <c r="A91" s="7"/>
     </row>
-    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15" customHeight="1">
       <c r="A92" s="7"/>
     </row>
-    <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15" customHeight="1">
       <c r="A93" s="7"/>
     </row>
-    <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15" customHeight="1">
       <c r="A94" s="7"/>
     </row>
-    <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15" customHeight="1">
       <c r="A95" s="7"/>
     </row>
-    <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15" customHeight="1">
       <c r="A96" s="7"/>
     </row>
-    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15" customHeight="1">
       <c r="A97" s="7"/>
     </row>
-    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15" customHeight="1">
       <c r="A98" s="7"/>
     </row>
-    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15" customHeight="1">
       <c r="A99" s="7"/>
     </row>
-    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15" customHeight="1">
       <c r="A100" s="7"/>
     </row>
-    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15" customHeight="1">
       <c r="A101" s="7"/>
     </row>
-    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15" customHeight="1">
       <c r="A102" s="7"/>
     </row>
-    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15" customHeight="1">
       <c r="A103" s="7"/>
     </row>
-    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15" customHeight="1">
       <c r="A104" s="7"/>
     </row>
-    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15" customHeight="1">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15" customHeight="1">
       <c r="A106" s="7"/>
     </row>
-    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15" customHeight="1">
       <c r="A107" s="7"/>
     </row>
-    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15" customHeight="1">
       <c r="A108" s="7"/>
     </row>
-    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15" customHeight="1">
       <c r="A109" s="7"/>
     </row>
-    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15" customHeight="1">
       <c r="A110" s="7"/>
     </row>
-    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15" customHeight="1">
       <c r="A111" s="7"/>
     </row>
-    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15" customHeight="1">
       <c r="A112" s="7"/>
     </row>
-    <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15" customHeight="1">
       <c r="A113" s="7"/>
     </row>
   </sheetData>

--- a/2008_dengue_extracted.xlsx
+++ b/2008_dengue_extracted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{ACF5C013-1B6D-B646-B41E-AE8017C61B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0D216BF-A074-4A84-A634-2C9AF722A960}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{ACF5C013-1B6D-B646-B41E-AE8017C61B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D36B4F2-4A62-4DE0-A696-E0FA6DBEC7EC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,9 +190,6 @@
     <t>Sakon Nakhon</t>
   </si>
   <si>
-    <t>Kalisin</t>
-  </si>
-  <si>
     <t>Khon Kaen</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t xml:space="preserve">  Sep</t>
+  </si>
+  <si>
+    <t>Kalasin</t>
   </si>
 </sst>
 </file>
@@ -430,6 +430,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -732,7 +736,7 @@
   <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1"/>
@@ -746,7 +750,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -764,16 +768,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>6</v>
@@ -787,7 +791,7 @@
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="13">
         <v>3</v>
@@ -912,49 +916,49 @@
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="C5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="13">
         <v>48</v>
@@ -1077,7 +1081,7 @@
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="13">
         <v>19</v>
@@ -1160,7 +1164,7 @@
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="13">
         <v>21</v>
@@ -1201,7 +1205,7 @@
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="13">
         <v>1</v>
@@ -1324,7 +1328,7 @@
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B15" s="13">
         <v>34</v>
@@ -1365,7 +1369,7 @@
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="13">
         <v>32</v>
@@ -1447,7 +1451,7 @@
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="13">
         <v>12</v>
@@ -1529,7 +1533,7 @@
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="13">
         <v>2</v>
@@ -1571,7 +1575,7 @@
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="13">
         <v>8</v>
@@ -1618,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="13">
         <v>6</v>
@@ -1695,13 +1699,13 @@
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="13">
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="13">
         <v>2</v>
@@ -1736,7 +1740,7 @@
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="13">
         <v>6</v>
@@ -1786,7 +1790,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="13">
         <v>9</v>
@@ -1930,18 +1934,18 @@
         <v>2</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="13">
         <v>48</v>
@@ -1982,7 +1986,7 @@
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="13">
         <v>107</v>
@@ -2064,7 +2068,7 @@
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="13">
         <v>1</v>
@@ -2179,7 +2183,7 @@
         <v>2</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M35" s="13">
         <v>1</v>
@@ -2476,10 +2480,10 @@
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="13">
         <v>1</v>
@@ -2517,7 +2521,7 @@
     </row>
     <row r="44" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" s="13">
         <v>21</v>
@@ -2601,7 +2605,7 @@
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="13">
         <v>51</v>
@@ -2642,7 +2646,7 @@
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="13">
         <v>25</v>
@@ -2683,7 +2687,7 @@
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" s="13">
         <v>2</v>
@@ -2970,7 +2974,7 @@
     </row>
     <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="13">
         <v>29</v>
@@ -3088,7 +3092,7 @@
         <v>6</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15" customHeight="1">
@@ -3298,7 +3302,7 @@
     </row>
     <row r="63" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="13">
         <v>21</v>
@@ -3422,7 +3426,7 @@
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1">
       <c r="A66" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="13">
         <v>4</v>
@@ -3545,7 +3549,7 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="13">
         <v>56</v>
@@ -3586,7 +3590,7 @@
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="13">
         <v>21</v>
@@ -3709,7 +3713,7 @@
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1">
       <c r="A73" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" s="13">
         <v>12</v>
@@ -3791,7 +3795,7 @@
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1">
       <c r="A75" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" s="13">
         <v>17</v>
@@ -3832,7 +3836,7 @@
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" s="13">
         <v>12</v>
@@ -3914,7 +3918,7 @@
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" s="13">
         <v>2</v>
